--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,51 +40,60 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -100,13 +109,13 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>important</t>
   </si>
   <si>
     <t>social</t>
@@ -470,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,10 +487,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -539,13 +548,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -557,19 +566,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -581,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -589,13 +598,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -607,10 +616,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -639,13 +648,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -660,16 +669,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.8333333333333334</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -681,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -689,13 +698,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9242424242424242</v>
+        <v>0.875</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -707,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -731,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -739,13 +748,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -757,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.7017543859649122</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -781,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -789,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8846153846153846</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C8">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -807,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.5172413793103449</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -831,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -839,13 +848,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7692307692307693</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -857,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.4666666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -881,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -889,13 +898,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6875</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -907,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.4666666666666667</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="L10">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -931,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -939,13 +948,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6842105263157895</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -957,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.04644808743169399</v>
+        <v>0.0482695810564663</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -981,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -989,13 +998,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1007,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1015,7 +1024,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5294117647058824</v>
+        <v>0.5625</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -1033,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1041,13 +1050,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4782608695652174</v>
+        <v>0.4855072463768116</v>
       </c>
       <c r="C14">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1059,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1067,7 +1076,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.45</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -1085,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1093,13 +1102,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3829787234042553</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1111,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1138,6 +1147,58 @@
       </c>
       <c r="H17">
         <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.2978723404255319</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
